--- a/output/fit_clients/fit_round_262.xlsx
+++ b/output/fit_clients/fit_round_262.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1560101380.068237</v>
+        <v>1546513716.321579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06928880974083466</v>
+        <v>0.0907171122015491</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03271526405861962</v>
+        <v>0.03328944487243241</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>780050626.5250211</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1960638102.933895</v>
+        <v>2042369463.777532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1660058030203228</v>
+        <v>0.1632100553668782</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04558818319926861</v>
+        <v>0.04525416051108346</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>980319085.4253862</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4877060389.096488</v>
+        <v>3245028277.987744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1439935082975933</v>
+        <v>0.1332685073670173</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02731137813758073</v>
+        <v>0.0339525725646854</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>95</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2438530270.848699</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3515700262.56052</v>
+        <v>2817627884.387683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07432030382651429</v>
+        <v>0.07617852810328198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04999193809267724</v>
+        <v>0.03764235670877846</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1757850167.029649</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2069015419.690164</v>
+        <v>2636051771.34021</v>
       </c>
       <c r="F6" t="n">
-        <v>0.141082054147714</v>
+        <v>0.1137602274246636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05088289456341395</v>
+        <v>0.04241660437094905</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>43</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1034507731.966787</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2949268215.004056</v>
+        <v>2667060964.889274</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08127652189822121</v>
+        <v>0.09317774120049524</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04572657188911122</v>
+        <v>0.0430547904146605</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>82</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1474634077.259207</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3593928906.209431</v>
+        <v>2753989926.414081</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2077067093844063</v>
+        <v>0.2037719344428591</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02586032063174511</v>
+        <v>0.0211461349385969</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1796964571.332446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1955123311.397281</v>
+        <v>2096999276.042947</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1913343874633743</v>
+        <v>0.1460103873870464</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02708186661054999</v>
+        <v>0.03411520067047289</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>977561688.5354263</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5622051498.027138</v>
+        <v>5535939172.930648</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1441616974469695</v>
+        <v>0.1431565126242515</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04879452053369344</v>
+        <v>0.05083466724394518</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>110</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2811025896.516473</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2590297897.932042</v>
+        <v>3315001420.43716</v>
       </c>
       <c r="F11" t="n">
-        <v>0.138662741115221</v>
+        <v>0.1614515779848151</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04763224357671002</v>
+        <v>0.04165505688490381</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>108</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1295148863.315618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2479062916.302545</v>
+        <v>3227312901.45663</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1869253197769493</v>
+        <v>0.1813849813319217</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05162715890310369</v>
+        <v>0.04504939757553302</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1239531428.454491</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4350812905.258938</v>
+        <v>3689125904.777628</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06815844588210085</v>
+        <v>0.07805341983610392</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02421018167689115</v>
+        <v>0.02222071365293495</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2175406489.730259</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3050799899.314356</v>
+        <v>2916466578.170672</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1353105381183829</v>
+        <v>0.1224099602532656</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02917985371190109</v>
+        <v>0.02825650194221863</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1525399980.402881</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1268773833.620936</v>
+        <v>1805354245.57087</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1059571239678307</v>
+        <v>0.07685648724029122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04632055204283583</v>
+        <v>0.04733254157378201</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>634386949.8835402</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1766023109.825683</v>
+        <v>2302814069.219613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09862888898378425</v>
+        <v>0.1081614557450165</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03365891586187612</v>
+        <v>0.0442671634995602</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>883011651.2906786</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4946853635.052182</v>
+        <v>3627463410.534228</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1721576458350319</v>
+        <v>0.1299932511961741</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04293266466964038</v>
+        <v>0.03872041624310874</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>77</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2473426805.340002</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3473106172.978582</v>
+        <v>2639928598.540131</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1269103205534075</v>
+        <v>0.1264255007902668</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03026178239036093</v>
+        <v>0.02140466913565166</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>86</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1736553082.491482</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1093830325.315304</v>
+        <v>1316088917.22806</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1152930875061918</v>
+        <v>0.163051487321369</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02013797267163956</v>
+        <v>0.01868383552713402</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>546915214.7307023</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010681410.749663</v>
+        <v>2590773804.800212</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1380031442116983</v>
+        <v>0.1372109155049865</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02323627648623465</v>
+        <v>0.02069968287998516</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1005340730.588193</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2671220718.359049</v>
+        <v>1769827822.130052</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09946489535873934</v>
+        <v>0.07909583443388689</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03922471950779341</v>
+        <v>0.04315276045896505</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1335610330.940979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2514004072.939743</v>
+        <v>4001337947.013292</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1339310912461616</v>
+        <v>0.1156315584372289</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04642877006821845</v>
+        <v>0.04663158467130884</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>72</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1257002127.099758</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1431948061.006307</v>
+        <v>1414316251.847155</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1580484461156683</v>
+        <v>0.161741012717378</v>
       </c>
       <c r="G23" t="n">
-        <v>0.040007831292728</v>
+        <v>0.03961499865356277</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>715974027.9156663</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3428807403.979202</v>
+        <v>2962304586.242923</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1417670257266514</v>
+        <v>0.1294168073932028</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02344533053465547</v>
+        <v>0.03527399037847024</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>77</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1714403708.384313</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1101150253.72536</v>
+        <v>1280026617.328309</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09177514100077769</v>
+        <v>0.09107008420583676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02310281920464363</v>
+        <v>0.02877817919872845</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>550575167.5879287</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1260557738.375477</v>
+        <v>941753342.3885988</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1104044999906086</v>
+        <v>0.09574641947478113</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03577873584028735</v>
+        <v>0.03072397483486433</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>630278905.044659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3153476550.452883</v>
+        <v>4700053608.198888</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09680245647964809</v>
+        <v>0.1404363057702047</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0244697853114714</v>
+        <v>0.01724481950285708</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>66</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1576738327.448123</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2935254548.678477</v>
+        <v>2800070300.855392</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1345689199548784</v>
+        <v>0.125045797957342</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04926434052262157</v>
+        <v>0.04674916954936026</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>87</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1467627279.930025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3648666770.56715</v>
+        <v>3744925767.044825</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1028459374689956</v>
+        <v>0.1363615427060695</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04623313230703626</v>
+        <v>0.03194586123355796</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>116</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1824333426.441842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1757205702.039293</v>
+        <v>1879138768.442525</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1106323508807672</v>
+        <v>0.1111138259026784</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03391125453049484</v>
+        <v>0.02785704224766463</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>878602860.80594</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>995739378.5516335</v>
+        <v>1286935334.731938</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08214119595828688</v>
+        <v>0.08098479418315732</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05015265808905307</v>
+        <v>0.03377341355155979</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>497869688.8213671</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1472885329.473737</v>
+        <v>1524730430.120464</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1177625147305354</v>
+        <v>0.1039341689795824</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02774319356668379</v>
+        <v>0.03711652476582499</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>736442727.463447</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2629065647.841958</v>
+        <v>2339118270.89326</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1346846098011223</v>
+        <v>0.1301478309896011</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06110668994084478</v>
+        <v>0.0404051132046972</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>80</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1314532851.124501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1079298975.88802</v>
+        <v>981717734.4214911</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09017309985029094</v>
+        <v>0.08947485880740957</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02594221575291358</v>
+        <v>0.0183651892746546</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>539649512.7923036</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1294323959.488839</v>
+        <v>1172960956.6557</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09687163404069755</v>
+        <v>0.07854130025021658</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04501682104296954</v>
+        <v>0.03724199924808048</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>647161933.7749193</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2494310841.086489</v>
+        <v>2780470473.501729</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1792617379963754</v>
+        <v>0.1465445565033943</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02233933163510748</v>
+        <v>0.02340327062724501</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>65</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1247155442.979703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2790643957.943542</v>
+        <v>2929202923.052806</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1001501521064638</v>
+        <v>0.102426093756532</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0279699113031001</v>
+        <v>0.03845294988998706</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>67</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1395322114.99023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1853582069.39869</v>
+        <v>1506459567.278732</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0977995365080475</v>
+        <v>0.08926995939222873</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03253834043193416</v>
+        <v>0.03513907544236385</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>926791034.0020332</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1900417941.648489</v>
+        <v>1863162557.996541</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1590071750317645</v>
+        <v>0.1391035079787472</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02045660607490853</v>
+        <v>0.03309455309665451</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>950208980.4574904</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1639643555.827958</v>
+        <v>1252828293.427279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1249442535506066</v>
+        <v>0.1368955949474251</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0442552311387571</v>
+        <v>0.04401043384830273</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>819821709.1477586</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2018742899.376334</v>
+        <v>1954004992.618542</v>
       </c>
       <c r="F41" t="n">
-        <v>0.10230348480578</v>
+        <v>0.1192439380550234</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03320481346086254</v>
+        <v>0.02957937177812178</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1009371522.042148</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4242658243.962535</v>
+        <v>4167063574.388464</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0771607973809752</v>
+        <v>0.1178259417442245</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0307673611273195</v>
+        <v>0.03865342021750746</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2121329167.940589</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2110145551.905968</v>
+        <v>1880512693.926384</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1918220139610729</v>
+        <v>0.1775544626307173</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02460544561380598</v>
+        <v>0.0253830223656271</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>94</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1055072863.821486</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2327251423.89143</v>
+        <v>1940145580.360687</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0770413049032441</v>
+        <v>0.08663734959968634</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03709532688001461</v>
+        <v>0.02308262498874946</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1163625883.568746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2039033706.211181</v>
+        <v>2152127268.774714</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1874733865701947</v>
+        <v>0.1893323087351996</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04051696069376581</v>
+        <v>0.0381586457574857</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1019516847.934526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3567624941.575855</v>
+        <v>4475500189.665022</v>
       </c>
       <c r="F46" t="n">
-        <v>0.128255877284516</v>
+        <v>0.1477398302102849</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05924931833845432</v>
+        <v>0.0531224271410707</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>93</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1783812415.549074</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3325339685.796502</v>
+        <v>4154809516.344705</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1655982051530913</v>
+        <v>0.1816658298132189</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05069008850315085</v>
+        <v>0.05013721720263365</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>70</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1662669803.78541</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2983666125.407367</v>
+        <v>4262063963.422386</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07213364886354726</v>
+        <v>0.06792306109555746</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03849178018418038</v>
+        <v>0.02927988891899495</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>90</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1491833156.141499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1663481206.453521</v>
+        <v>1668560226.856177</v>
       </c>
       <c r="F49" t="n">
-        <v>0.148188918964025</v>
+        <v>0.1434561122189188</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03322260995485066</v>
+        <v>0.04105764052873667</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>831740609.8298694</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2986887484.752965</v>
+        <v>2971577125.265682</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1786080388647848</v>
+        <v>0.1453647324338389</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03799043696168754</v>
+        <v>0.04817819015524095</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>89</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1493443803.127972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1305492130.678374</v>
+        <v>951652387.7030807</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152013480442812</v>
+        <v>0.1575881948464186</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03426970107051498</v>
+        <v>0.03471186196706125</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>652746099.7971535</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5145113886.836832</v>
+        <v>4562094182.672808</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08741724237409888</v>
+        <v>0.102139354176967</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04248411879285049</v>
+        <v>0.04967576465396394</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>108</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2572556932.493112</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2329311791.04179</v>
+        <v>3311579348.066795</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1814884959631083</v>
+        <v>0.1954254801613147</v>
       </c>
       <c r="G53" t="n">
-        <v>0.026665397970387</v>
+        <v>0.02933582730635903</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>75</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1164655974.286466</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3754027127.230888</v>
+        <v>4274371989.560382</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1057214189057937</v>
+        <v>0.155216270831125</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05197422643368814</v>
+        <v>0.04130896503638187</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>86</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1877013608.380981</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4555726333.112494</v>
+        <v>4792621590.142375</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2056007756996603</v>
+        <v>0.1778523228811314</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0224947760385539</v>
+        <v>0.02283071707611061</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2277863165.973737</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1854447227.185666</v>
+        <v>1672519903.788363</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1140745812613428</v>
+        <v>0.1236086376050516</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04272474586827082</v>
+        <v>0.03682380540565964</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>927223603.3348416</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3684756606.986178</v>
+        <v>3628706297.173184</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1820824141534714</v>
+        <v>0.1671304342220459</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02335936630371893</v>
+        <v>0.02284803829266478</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>83</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1842378365.389747</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1399648076.601267</v>
+        <v>1552538998.168312</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1598334993914382</v>
+        <v>0.1716844070075787</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03625421914748229</v>
+        <v>0.03967136302970726</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>699824078.6013284</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3636494360.711456</v>
+        <v>3764037628.275805</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1285076692333147</v>
+        <v>0.09915199542108868</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03254404161668784</v>
+        <v>0.04316508603306322</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1818247173.839864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2372310372.833558</v>
+        <v>2531251407.2921</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1378541723069115</v>
+        <v>0.1710009981267636</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02833603470768215</v>
+        <v>0.02773362957849186</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>82</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1186155190.916869</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2783138483.006032</v>
+        <v>2676723750.948452</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1716956496909218</v>
+        <v>0.1394831653928942</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02286015679313238</v>
+        <v>0.0220539720677097</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>90</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1391569242.41797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1854506405.921627</v>
+        <v>1344576777.651512</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1216849301796566</v>
+        <v>0.1377904065317662</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0378291721185154</v>
+        <v>0.04743503888077539</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>927253239.1952533</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3610304968.454933</v>
+        <v>4970278369.096619</v>
       </c>
       <c r="F63" t="n">
-        <v>0.105681018115521</v>
+        <v>0.06552249694498048</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03470345204091047</v>
+        <v>0.04301397643907898</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1805152563.995291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3979869365.830288</v>
+        <v>5364852691.136715</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1397381430947518</v>
+        <v>0.1182672002162583</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02536400773471244</v>
+        <v>0.02164342968660134</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>81</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1989934717.358696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3786648469.968091</v>
+        <v>4536055550.08201</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1171958444668228</v>
+        <v>0.1505499513605623</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02647782005125489</v>
+        <v>0.02054245638222492</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>94</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1893324266.294446</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3849073587.087341</v>
+        <v>4345794948.842132</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1382920551506335</v>
+        <v>0.104427435730302</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04604522753372002</v>
+        <v>0.04798585689571915</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>76</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1924536759.005839</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2127686424.966736</v>
+        <v>3000210022.971245</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08937390955039773</v>
+        <v>0.09381557849749243</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04254299287694947</v>
+        <v>0.04605834326100018</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>84</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1063843304.61335</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6021577161.359122</v>
+        <v>4349489962.876133</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1047483695156715</v>
+        <v>0.1606965727509941</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03869464356026197</v>
+        <v>0.04602767363804206</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3010788698.973096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1755608930.907802</v>
+        <v>1546467295.491137</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1451937452539917</v>
+        <v>0.1241539461254387</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05649309683718239</v>
+        <v>0.03633705887475939</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>877804438.7818176</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2571928021.36839</v>
+        <v>2843303480.422702</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08537777518239885</v>
+        <v>0.06229289898855798</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04570392212548898</v>
+        <v>0.03572720628276346</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>75</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1285963959.881985</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3856297854.70305</v>
+        <v>3943096021.650215</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1358290219954239</v>
+        <v>0.1562776927676301</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02351593874780931</v>
+        <v>0.02303345579689773</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>95</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1928148947.652325</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1493140549.138376</v>
+        <v>1590779749.617264</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06665725763033624</v>
+        <v>0.08074252130885401</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0531723266444081</v>
+        <v>0.04801181027281196</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>746570302.6261876</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3382118959.615388</v>
+        <v>2439609683.304858</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09030329404683948</v>
+        <v>0.08892029544526114</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03887231935227277</v>
+        <v>0.04959690216482517</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>101</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1691059440.79816</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3453004730.468828</v>
+        <v>2939543889.266505</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1224595322065607</v>
+        <v>0.1211439743221952</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02369329003913134</v>
+        <v>0.0285488897509458</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>89</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1726502391.476633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2107186720.054008</v>
+        <v>1624941232.406298</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1524913126234501</v>
+        <v>0.1139495124577715</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02318156346092232</v>
+        <v>0.03773705273812676</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1053593314.217993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4845125633.80777</v>
+        <v>5214533353.191113</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1120164795753157</v>
+        <v>0.1182139260419238</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02222409860093846</v>
+        <v>0.02502793580319986</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2422562837.067003</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1725574846.551575</v>
+        <v>1791307309.80419</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12958063453874</v>
+        <v>0.1484875459917811</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03177178807206122</v>
+        <v>0.03133031026024176</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>862787444.3008085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4015734309.023022</v>
+        <v>3373047134.50945</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1095722034363765</v>
+        <v>0.1243502883271829</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04268482325450774</v>
+        <v>0.05600573508111262</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>91</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2007867119.107795</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476919963.579068</v>
+        <v>1278073296.790321</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1498805800615355</v>
+        <v>0.1339099893449923</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0293666141210062</v>
+        <v>0.04067460649202483</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>738460011.9657722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4912536249.511557</v>
+        <v>4056038361.301531</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08010147803104634</v>
+        <v>0.1030093717933255</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0303345269976428</v>
+        <v>0.03323312239512758</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>55</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2456268169.616393</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4448940348.916171</v>
+        <v>4454625216.536377</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1225112857457086</v>
+        <v>0.1066006165245074</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02402578048160589</v>
+        <v>0.03233046406369723</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2224470154.340181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3628194089.990835</v>
+        <v>3757353296.604194</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1802726496708785</v>
+        <v>0.1417910506601151</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02080318943092036</v>
+        <v>0.02232159693734365</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>93</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1814097105.505575</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2346896439.117631</v>
+        <v>1802896234.005481</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475238546327005</v>
+        <v>0.09809856461839919</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04253216268467423</v>
+        <v>0.03005427992885367</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1173448248.070636</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2373138992.606438</v>
+        <v>1571552410.19483</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09796793241540513</v>
+        <v>0.07317556556213348</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04215196287892502</v>
+        <v>0.04976275077957554</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1186569446.702647</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2529119651.775668</v>
+        <v>2379572292.689898</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1469671646339966</v>
+        <v>0.123682249802365</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04389232834157036</v>
+        <v>0.05678883775126164</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>99</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1264559834.034453</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2625226274.038975</v>
+        <v>2399757392.469089</v>
       </c>
       <c r="F86" t="n">
-        <v>0.158929714511896</v>
+        <v>0.1054824029125185</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01781541138140111</v>
+        <v>0.02387323869019101</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>34</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1312613251.581248</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1418564619.991916</v>
+        <v>1286690660.209651</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1344407401906882</v>
+        <v>0.1249769114618981</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0293837696481512</v>
+        <v>0.02869650709852515</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>709282421.5866762</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3634599359.623104</v>
+        <v>3296332124.817549</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1312379298605724</v>
+        <v>0.1430591421609161</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02534054862625791</v>
+        <v>0.03194861264288397</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>103</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1817299772.977266</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3505932607.191577</v>
+        <v>3367795753.416256</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1254969018375779</v>
+        <v>0.1364799585098416</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0417616799382839</v>
+        <v>0.03508140538182035</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>89</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1752966304.612961</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2076451797.96514</v>
+        <v>1853640508.30866</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1020723605909239</v>
+        <v>0.1280700784251321</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04343366893758408</v>
+        <v>0.04693506970485152</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1038225983.216946</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1341601346.716482</v>
+        <v>1290985234.52283</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1758672738636508</v>
+        <v>0.1906370488851161</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04777179547641783</v>
+        <v>0.05964888524279419</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>670800733.4046941</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2537014002.267789</v>
+        <v>2318900901.027781</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07165834955862373</v>
+        <v>0.08904174414494075</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03559224930728089</v>
+        <v>0.03721894031312065</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1268506987.883173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3264839667.441537</v>
+        <v>4073640013.329296</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1297747306284273</v>
+        <v>0.0942418436013233</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05479813246535611</v>
+        <v>0.05252083384733919</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1632419881.870878</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1555087789.587934</v>
+        <v>2095100144.8087</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1263538687966914</v>
+        <v>0.1494219806769821</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03073351554211283</v>
+        <v>0.03399344881796221</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>777543835.2346559</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3210934128.311037</v>
+        <v>3154142166.016365</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09219097202230807</v>
+        <v>0.1089300932872986</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04105806167819206</v>
+        <v>0.04461085555687502</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>63</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1605467048.565829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2289033708.056436</v>
+        <v>2195351293.186539</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09397385099243687</v>
+        <v>0.1302991226793888</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03147238586171282</v>
+        <v>0.04163850566293879</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1144516810.143398</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3405923768.412119</v>
+        <v>5263838379.901332</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1315975409796738</v>
+        <v>0.1351866634529978</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02921863344459929</v>
+        <v>0.02565325380506348</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1702961892.802889</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3597547650.118243</v>
+        <v>3481963009.485425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1086351280456663</v>
+        <v>0.1005353095170439</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02026327588155783</v>
+        <v>0.02428060707286812</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1798773850.266803</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2240333057.368289</v>
+        <v>2740107861.202927</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1301212528835032</v>
+        <v>0.1235882210888137</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0219383512607558</v>
+        <v>0.03207626172995362</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>82</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1120166459.636086</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4201287186.670918</v>
+        <v>4510667879.513865</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1223315885657492</v>
+        <v>0.1404800456592312</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01941009736313494</v>
+        <v>0.0243880258327182</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>80</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2100643680.07916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2550935544.345795</v>
+        <v>3151113580.216592</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2081874078069563</v>
+        <v>0.1376622121889913</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05669001151782489</v>
+        <v>0.03762637131321952</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>105</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1275467801.921062</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_262.xlsx
+++ b/output/fit_clients/fit_round_262.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1546513716.321579</v>
+        <v>1673355930.557138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0907171122015491</v>
+        <v>0.08207251295689703</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03328944487243241</v>
+        <v>0.02928354884253639</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2042369463.777532</v>
+        <v>2464500697.887292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632100553668782</v>
+        <v>0.1478082736600709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04525416051108346</v>
+        <v>0.03338569730201223</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3245028277.987744</v>
+        <v>5002553193.723944</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1332685073670173</v>
+        <v>0.1654369484818239</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0339525725646854</v>
+        <v>0.02866636490703353</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2817627884.387683</v>
+        <v>3074582150.429796</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07617852810328198</v>
+        <v>0.06887518739717161</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03764235670877846</v>
+        <v>0.03813983117020601</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2636051771.34021</v>
+        <v>1843729116.710891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1137602274246636</v>
+        <v>0.1035634016110894</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04241660437094905</v>
+        <v>0.04086946143258344</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2667060964.889274</v>
+        <v>2619241803.363454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09317774120049524</v>
+        <v>0.09325231269879831</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0430547904146605</v>
+        <v>0.04702280878340018</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2753989926.414081</v>
+        <v>3854786729.320338</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2037719344428591</v>
+        <v>0.2116168373525128</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0211461349385969</v>
+        <v>0.02509494347031952</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2096999276.042947</v>
+        <v>1972822629.567076</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1460103873870464</v>
+        <v>0.1289401532140208</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03411520067047289</v>
+        <v>0.02772267831935133</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5535939172.930648</v>
+        <v>5383416799.995675</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1431565126242515</v>
+        <v>0.1592930606675298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05083466724394518</v>
+        <v>0.03394185180147456</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3315001420.43716</v>
+        <v>3586746834.258369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1614515779848151</v>
+        <v>0.1860526684281044</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04165505688490381</v>
+        <v>0.04431550053574744</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3227312901.45663</v>
+        <v>2217373356.986094</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1813849813319217</v>
+        <v>0.1959086769940103</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04504939757553302</v>
+        <v>0.0349667959671529</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3689125904.777628</v>
+        <v>3295615204.761267</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07805341983610392</v>
+        <v>0.06213823225125494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02222071365293495</v>
+        <v>0.0197324882013786</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2916466578.170672</v>
+        <v>3327208283.335402</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1224099602532656</v>
+        <v>0.136416244690075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02825650194221863</v>
+        <v>0.043824742948852</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1805354245.57087</v>
+        <v>1663435363.052831</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07685648724029122</v>
+        <v>0.09960229632627088</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04733254157378201</v>
+        <v>0.04932952867794892</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2302814069.219613</v>
+        <v>1947354051.980707</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1081614557450165</v>
+        <v>0.1085920835680042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0442671634995602</v>
+        <v>0.05108204581327362</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3627463410.534228</v>
+        <v>3410255146.777981</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1299932511961741</v>
+        <v>0.1310372927685889</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03872041624310874</v>
+        <v>0.05180620625265598</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2639928598.540131</v>
+        <v>3367055831.626678</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1264255007902668</v>
+        <v>0.1265134157662701</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02140466913565166</v>
+        <v>0.0328626463777957</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1316088917.22806</v>
+        <v>1109508628.356881</v>
       </c>
       <c r="F19" t="n">
-        <v>0.163051487321369</v>
+        <v>0.1736306125941613</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01868383552713402</v>
+        <v>0.02291544785621714</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2590773804.800212</v>
+        <v>2479411055.038679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1372109155049865</v>
+        <v>0.1538894546484255</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02069968287998516</v>
+        <v>0.0304209228650707</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1769827822.130052</v>
+        <v>2503593972.767344</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07909583443388689</v>
+        <v>0.09852067444751332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04315276045896505</v>
+        <v>0.04423319512022839</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4001337947.013292</v>
+        <v>2547271840.948939</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1156315584372289</v>
+        <v>0.1435293093801502</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04663158467130884</v>
+        <v>0.040825058578307</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1414316251.847155</v>
+        <v>1346268179.162998</v>
       </c>
       <c r="F23" t="n">
-        <v>0.161741012717378</v>
+        <v>0.1416467893082335</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03961499865356277</v>
+        <v>0.04081459984292788</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2962304586.242923</v>
+        <v>2726291734.639142</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1294168073932028</v>
+        <v>0.1352979252953797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03527399037847024</v>
+        <v>0.03522999884005932</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1280026617.328309</v>
+        <v>1238297874.923132</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09107008420583676</v>
+        <v>0.08521988210108379</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02877817919872845</v>
+        <v>0.02555455646257391</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>941753342.3885988</v>
+        <v>1346389553.469239</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09574641947478113</v>
+        <v>0.0776276951849732</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03072397483486433</v>
+        <v>0.03686119082491894</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4700053608.198888</v>
+        <v>3104320289.123753</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1404363057702047</v>
+        <v>0.1509441478912911</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01724481950285708</v>
+        <v>0.01727215739503154</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2800070300.855392</v>
+        <v>2637237879.013596</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125045797957342</v>
+        <v>0.09669665090020899</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04674916954936026</v>
+        <v>0.0361044589560686</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3744925767.044825</v>
+        <v>4856804128.002742</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1363615427060695</v>
+        <v>0.115877683867759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03194586123355796</v>
+        <v>0.04092625871342957</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1879138768.442525</v>
+        <v>1557794751.128945</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1111138259026784</v>
+        <v>0.1021143593100074</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02785704224766463</v>
+        <v>0.02934521697917173</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1286935334.731938</v>
+        <v>967914172.4392234</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08098479418315732</v>
+        <v>0.1100793829207635</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03377341355155979</v>
+        <v>0.04308579189477506</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1524730430.120464</v>
+        <v>1584669019.853788</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1039341689795824</v>
+        <v>0.1206036851495094</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03711652476582499</v>
+        <v>0.03339945204791556</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2339118270.89326</v>
+        <v>2838905034.783274</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1301478309896011</v>
+        <v>0.1468784778077115</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0404051132046972</v>
+        <v>0.04441325287129422</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>981717734.4214911</v>
+        <v>1526959292.813416</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08947485880740957</v>
+        <v>0.1056662931363886</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0183651892746546</v>
+        <v>0.02799062105373616</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1172960956.6557</v>
+        <v>863730127.4501094</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07854130025021658</v>
+        <v>0.109651213492668</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03724199924808048</v>
+        <v>0.02912629031312629</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2780470473.501729</v>
+        <v>3099605694.79679</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1465445565033943</v>
+        <v>0.1402725163508576</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02340327062724501</v>
+        <v>0.02046763647399704</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2929202923.052806</v>
+        <v>2484806965.063428</v>
       </c>
       <c r="F37" t="n">
-        <v>0.102426093756532</v>
+        <v>0.104989115515985</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03845294988998706</v>
+        <v>0.03832272539150993</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1506459567.278732</v>
+        <v>1504719364.22087</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08926995939222873</v>
+        <v>0.09457799733529025</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03513907544236385</v>
+        <v>0.03467520118006343</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1863162557.996541</v>
+        <v>1516093155.624668</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1391035079787472</v>
+        <v>0.1395252100703498</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03309455309665451</v>
+        <v>0.03181504087225306</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1252828293.427279</v>
+        <v>1563695289.122976</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1368955949474251</v>
+        <v>0.1143234983266427</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04401043384830273</v>
+        <v>0.04804298132548965</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1954004992.618542</v>
+        <v>2358047613.076799</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1192439380550234</v>
+        <v>0.1431018888201009</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02957937177812178</v>
+        <v>0.028759560442066</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4167063574.388464</v>
+        <v>2787810300.486387</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1178259417442245</v>
+        <v>0.09598153370008793</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03865342021750746</v>
+        <v>0.03072584479814851</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1880512693.926384</v>
+        <v>2106686005.8088</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1775544626307173</v>
+        <v>0.142373939743261</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0253830223656271</v>
+        <v>0.01712853512664089</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1940145580.360687</v>
+        <v>1776802398.760143</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08663734959968634</v>
+        <v>0.09482576204781504</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02308262498874946</v>
+        <v>0.03303240282698858</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2152127268.774714</v>
+        <v>2175730838.251944</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1893323087351996</v>
+        <v>0.1557657081111288</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0381586457574857</v>
+        <v>0.05464431308591268</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4475500189.665022</v>
+        <v>5086884605.197101</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1477398302102849</v>
+        <v>0.1333977617636758</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0531224271410707</v>
+        <v>0.04797520288155735</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4154809516.344705</v>
+        <v>3469128777.677927</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1816658298132189</v>
+        <v>0.1903420611565756</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05013721720263365</v>
+        <v>0.05185226701425326</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4262063963.422386</v>
+        <v>4553418295.886777</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06792306109555746</v>
+        <v>0.07749338908368011</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02927988891899495</v>
+        <v>0.0276877802599962</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1668560226.856177</v>
+        <v>1599830469.325265</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1434561122189188</v>
+        <v>0.118577632952991</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04105764052873667</v>
+        <v>0.02764510483000509</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2971577125.265682</v>
+        <v>3536367921.281154</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1453647324338389</v>
+        <v>0.1297629038072544</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04817819015524095</v>
+        <v>0.04186848615505768</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>951652387.7030807</v>
+        <v>1512031110.513837</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1575881948464186</v>
+        <v>0.1538145370350708</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03471186196706125</v>
+        <v>0.03530824128852292</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4562094182.672808</v>
+        <v>3357619582.904947</v>
       </c>
       <c r="F52" t="n">
-        <v>0.102139354176967</v>
+        <v>0.1138187859617653</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04967576465396394</v>
+        <v>0.04440692391801306</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3311579348.066795</v>
+        <v>3267442626.241673</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1954254801613147</v>
+        <v>0.1363433816964077</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02933582730635903</v>
+        <v>0.03431196594167604</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4274371989.560382</v>
+        <v>3915666737.345025</v>
       </c>
       <c r="F54" t="n">
-        <v>0.155216270831125</v>
+        <v>0.1604370057693447</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04130896503638187</v>
+        <v>0.04174203010382624</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4792621590.142375</v>
+        <v>4961048969.11491</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1778523228811314</v>
+        <v>0.1583861944475672</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02283071707611061</v>
+        <v>0.0220091438266139</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1672519903.788363</v>
+        <v>1321203204.137071</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1236086376050516</v>
+        <v>0.1150734403958923</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03682380540565964</v>
+        <v>0.03745500204186283</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3628706297.173184</v>
+        <v>3310281193.213109</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1671304342220459</v>
+        <v>0.1381968267307772</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02284803829266478</v>
+        <v>0.02506559713435857</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1552538998.168312</v>
+        <v>1876589978.51173</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1716844070075787</v>
+        <v>0.2007321902560265</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03967136302970726</v>
+        <v>0.03516024999437251</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3764037628.275805</v>
+        <v>4622644107.540659</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09915199542108868</v>
+        <v>0.08823171393979534</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04316508603306322</v>
+        <v>0.04597231986112325</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2531251407.2921</v>
+        <v>3589517690.243168</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1710009981267636</v>
+        <v>0.1874920538191687</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02773362957849186</v>
+        <v>0.02241902416214998</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2676723750.948452</v>
+        <v>2418415326.692743</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1394831653928942</v>
+        <v>0.1237736705777006</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0220539720677097</v>
+        <v>0.02476870059092646</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1344576777.651512</v>
+        <v>2074047380.067938</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1377904065317662</v>
+        <v>0.1250194755213491</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04743503888077539</v>
+        <v>0.03666173401761249</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4970278369.096619</v>
+        <v>5596323918.523484</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06552249694498048</v>
+        <v>0.09678627407997194</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04301397643907898</v>
+        <v>0.03158241105205023</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5364852691.136715</v>
+        <v>5038343496.349058</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1182672002162583</v>
+        <v>0.1749756358588873</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02164342968660134</v>
+        <v>0.02715155918125282</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4536055550.08201</v>
+        <v>5649315934.051616</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1505499513605623</v>
+        <v>0.1621458274974844</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02054245638222492</v>
+        <v>0.03070485334452782</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4345794948.842132</v>
+        <v>4688136433.971342</v>
       </c>
       <c r="F66" t="n">
-        <v>0.104427435730302</v>
+        <v>0.1046245860016238</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04798585689571915</v>
+        <v>0.03252629536233515</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3000210022.971245</v>
+        <v>2908423476.743596</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09381557849749243</v>
+        <v>0.07635637051876004</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04605834326100018</v>
+        <v>0.03234338411328733</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4349489962.876133</v>
+        <v>4752341907.741708</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1606965727509941</v>
+        <v>0.1071187954426868</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04602767363804206</v>
+        <v>0.05173191826381478</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1546467295.491137</v>
+        <v>2485651655.080333</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1241539461254387</v>
+        <v>0.1207262204680607</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03633705887475939</v>
+        <v>0.0487826305391284</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2843303480.422702</v>
+        <v>2977920036.102399</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06229289898855798</v>
+        <v>0.08130083718030197</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03572720628276346</v>
+        <v>0.04507065060214914</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3943096021.650215</v>
+        <v>4638632676.106603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1562776927676301</v>
+        <v>0.1301369666972434</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02303345579689773</v>
+        <v>0.02819743094717314</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1590779749.617264</v>
+        <v>2256703170.955104</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08074252130885401</v>
+        <v>0.09865610127611213</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04801181027281196</v>
+        <v>0.03422869815370557</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2439609683.304858</v>
+        <v>2783659746.240013</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08892029544526114</v>
+        <v>0.08908352881608383</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04959690216482517</v>
+        <v>0.04526111425976787</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2939543889.266505</v>
+        <v>3247429435.853418</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1211439743221952</v>
+        <v>0.1164573259888437</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0285488897509458</v>
+        <v>0.03437719948160061</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1624941232.406298</v>
+        <v>1881983182.476419</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1139495124577715</v>
+        <v>0.1544883405009766</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03773705273812676</v>
+        <v>0.03799089404753835</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5214533353.191113</v>
+        <v>5065696524.284958</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1182139260419238</v>
+        <v>0.1216141764200765</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02502793580319986</v>
+        <v>0.02966674140686285</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1791307309.80419</v>
+        <v>1869864235.797202</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1484875459917811</v>
+        <v>0.1373358135092014</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03133031026024176</v>
+        <v>0.02964035101646668</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3373047134.50945</v>
+        <v>3232508985.920521</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1243502883271829</v>
+        <v>0.09392972710194041</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05600573508111262</v>
+        <v>0.05250446093737001</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1278073296.790321</v>
+        <v>1465880597.371084</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1339099893449923</v>
+        <v>0.159241576589132</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04067460649202483</v>
+        <v>0.03284921971097636</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4056038361.301531</v>
+        <v>3941544709.313768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1030093717933255</v>
+        <v>0.08227020986086263</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03323312239512758</v>
+        <v>0.027337170493086</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4454625216.536377</v>
+        <v>4169544991.77821</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1066006165245074</v>
+        <v>0.1338191974829156</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03233046406369723</v>
+        <v>0.02477368619316148</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3757353296.604194</v>
+        <v>4763107446.69194</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1417910506601151</v>
+        <v>0.1463340000398863</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02232159693734365</v>
+        <v>0.02783456423959288</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1802896234.005481</v>
+        <v>1682793450.70025</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09809856461839919</v>
+        <v>0.1549189701523945</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03005427992885367</v>
+        <v>0.03296323110169794</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1571552410.19483</v>
+        <v>1754453158.991863</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07317556556213348</v>
+        <v>0.08179865779736291</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04976275077957554</v>
+        <v>0.0469043526958253</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2379572292.689898</v>
+        <v>2865407175.300558</v>
       </c>
       <c r="F85" t="n">
-        <v>0.123682249802365</v>
+        <v>0.1490739234990676</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05678883775126164</v>
+        <v>0.04243895499686718</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2399757392.469089</v>
+        <v>2306443054.728013</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1054824029125185</v>
+        <v>0.1653589693531476</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02387323869019101</v>
+        <v>0.02048546865031938</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1286690660.209651</v>
+        <v>1109507313.333272</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1249769114618981</v>
+        <v>0.1880979153720191</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02869650709852515</v>
+        <v>0.03363248199253966</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3296332124.817549</v>
+        <v>3590847865.863532</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1430591421609161</v>
+        <v>0.1401840628111823</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03194861264288397</v>
+        <v>0.02895020984752366</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3367795753.416256</v>
+        <v>3053503430.173905</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1364799585098416</v>
+        <v>0.1268686637483904</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03508140538182035</v>
+        <v>0.03101833905313459</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1853640508.30866</v>
+        <v>1954325472.18771</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1280700784251321</v>
+        <v>0.1091891554380058</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04693506970485152</v>
+        <v>0.05159069997140272</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1290985234.52283</v>
+        <v>1412217248.718524</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1906370488851161</v>
+        <v>0.1222706699760046</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05964888524279419</v>
+        <v>0.04797132622203614</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2318900901.027781</v>
+        <v>2942249963.477334</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08904174414494075</v>
+        <v>0.08743122675525931</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03721894031312065</v>
+        <v>0.03944372708712715</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4073640013.329296</v>
+        <v>3822553664.511815</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0942418436013233</v>
+        <v>0.1160186722508381</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05252083384733919</v>
+        <v>0.05190267618397072</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2095100144.8087</v>
+        <v>1867581981.678543</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1494219806769821</v>
+        <v>0.1255484594976346</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03399344881796221</v>
+        <v>0.03562130797883686</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3154142166.016365</v>
+        <v>2344501662.878155</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1089300932872986</v>
+        <v>0.09400521512817864</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04461085555687502</v>
+        <v>0.03438441054294233</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2195351293.186539</v>
+        <v>2271406166.100629</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1302991226793888</v>
+        <v>0.1413976929301897</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04163850566293879</v>
+        <v>0.0441820735046717</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5263838379.901332</v>
+        <v>4797398467.265283</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1351866634529978</v>
+        <v>0.1431414526088795</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02565325380506348</v>
+        <v>0.02650630094599339</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3481963009.485425</v>
+        <v>3909171167.960342</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1005353095170439</v>
+        <v>0.1245561004239273</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02428060707286812</v>
+        <v>0.02315334080972498</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2740107861.202927</v>
+        <v>3337099364.018758</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235882210888137</v>
+        <v>0.1471328748847924</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03207626172995362</v>
+        <v>0.03472849696634715</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4510667879.513865</v>
+        <v>3405442108.95108</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1404800456592312</v>
+        <v>0.1282672895960528</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0243880258327182</v>
+        <v>0.02386117296726751</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3151113580.216592</v>
+        <v>3291314200.879951</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1376622121889913</v>
+        <v>0.1862402554493006</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03762637131321952</v>
+        <v>0.04326300507814267</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_262.xlsx
+++ b/output/fit_clients/fit_round_262.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1673355930.557138</v>
+        <v>2250101512.608858</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08207251295689703</v>
+        <v>0.1065361205902027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02928354884253639</v>
+        <v>0.02946742894809457</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2464500697.887292</v>
+        <v>2107143734.620634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1478082736600709</v>
+        <v>0.1795090935915727</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03338569730201223</v>
+        <v>0.03904754524527423</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5002553193.723944</v>
+        <v>4522086849.678256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1654369484818239</v>
+        <v>0.1086662333885265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02866636490703353</v>
+        <v>0.02802924822379959</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>141</v>
+      </c>
+      <c r="J4" t="n">
+        <v>261</v>
+      </c>
+      <c r="K4" t="n">
+        <v>95.98399761766663</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3074582150.429796</v>
+        <v>2611211759.360788</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06887518739717161</v>
+        <v>0.1043707904758252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03813983117020601</v>
+        <v>0.0429786339293483</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1843729116.710891</v>
+        <v>2460942502.028512</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1035634016110894</v>
+        <v>0.1135836610995758</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04086946143258344</v>
+        <v>0.03606743152867698</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2619241803.363454</v>
+        <v>3024433649.925618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09325231269879831</v>
+        <v>0.08714959221854746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04702280878340018</v>
+        <v>0.03304382231718903</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3854786729.320338</v>
+        <v>2931735441.592156</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2116168373525128</v>
+        <v>0.1977597605109215</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02509494347031952</v>
+        <v>0.03076605247092375</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1972822629.567076</v>
+        <v>2203662298.46087</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1289401532140208</v>
+        <v>0.1602758392995199</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02772267831935133</v>
+        <v>0.02655196310139809</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5383416799.995675</v>
+        <v>4896992965.071794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1592930606675298</v>
+        <v>0.1984901411278283</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03394185180147456</v>
+        <v>0.04479377907651126</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>237</v>
+      </c>
+      <c r="J10" t="n">
+        <v>262</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100.456053387842</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3586746834.258369</v>
+        <v>3635730253.786225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1860526684281044</v>
+        <v>0.1238409429332101</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04431550053574744</v>
+        <v>0.04753131434299502</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>106</v>
+      </c>
+      <c r="J11" t="n">
+        <v>262</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2217373356.986094</v>
+        <v>3216305792.573763</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1959086769940103</v>
+        <v>0.1640986383783596</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0349667959671529</v>
+        <v>0.03781767443189457</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3295615204.761267</v>
+        <v>3852654327.697344</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06213823225125494</v>
+        <v>0.09075678549418512</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0197324882013786</v>
+        <v>0.02110665818943628</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>133</v>
+      </c>
+      <c r="J13" t="n">
+        <v>261</v>
+      </c>
+      <c r="K13" t="n">
+        <v>87.90407612432921</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3327208283.335402</v>
+        <v>3318147997.683713</v>
       </c>
       <c r="F14" t="n">
-        <v>0.136416244690075</v>
+        <v>0.1451951559110088</v>
       </c>
       <c r="G14" t="n">
-        <v>0.043824742948852</v>
+        <v>0.04015982021098016</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>52</v>
+      </c>
+      <c r="J14" t="n">
+        <v>262</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1663435363.052831</v>
+        <v>1230269921.037092</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09960229632627088</v>
+        <v>0.07265246720702238</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04932952867794892</v>
+        <v>0.04362070163384956</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1947354051.980707</v>
+        <v>2601656416.916857</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1085920835680042</v>
+        <v>0.1023124279316062</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05108204581327362</v>
+        <v>0.04851691183436739</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3410255146.777981</v>
+        <v>3241491555.03372</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1310372927685889</v>
+        <v>0.1697976626782899</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05180620625265598</v>
+        <v>0.04825751883752167</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>262</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3367055831.626678</v>
+        <v>3620481486.227186</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1265134157662701</v>
+        <v>0.1264828889137335</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0328626463777957</v>
+        <v>0.02373697891489048</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>261</v>
+      </c>
+      <c r="K18" t="n">
+        <v>81.01124896368972</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1109508628.356881</v>
+        <v>1320699599.431936</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1736306125941613</v>
+        <v>0.1543767884970146</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02291544785621714</v>
+        <v>0.02441361158908286</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2479411055.038679</v>
+        <v>2582024415.883503</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1538894546484255</v>
+        <v>0.1182997202429666</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0304209228650707</v>
+        <v>0.0253540498612221</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2503593972.767344</v>
+        <v>2291950301.917602</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09852067444751332</v>
+        <v>0.08494295065078691</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04423319512022839</v>
+        <v>0.02799621448732128</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2547271840.948939</v>
+        <v>2589347488.394557</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1435293093801502</v>
+        <v>0.09198825763439647</v>
       </c>
       <c r="G22" t="n">
-        <v>0.040825058578307</v>
+        <v>0.05211071707432139</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>68</v>
+      </c>
+      <c r="J22" t="n">
+        <v>260</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1346268179.162998</v>
+        <v>1482950108.35763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1416467893082335</v>
+        <v>0.1504902162532111</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04081459984292788</v>
+        <v>0.0529241810878917</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2726291734.639142</v>
+        <v>3262218519.104212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1352979252953797</v>
+        <v>0.1441456735795449</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03522999884005932</v>
+        <v>0.03451763561437191</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>78</v>
+      </c>
+      <c r="J24" t="n">
+        <v>262</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1238297874.923132</v>
+        <v>1473419679.264622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08521988210108379</v>
+        <v>0.09633894994850073</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02555455646257391</v>
+        <v>0.02423813884461011</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1346389553.469239</v>
+        <v>1320871862.556173</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0776276951849732</v>
+        <v>0.1222653333513261</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03686119082491894</v>
+        <v>0.0390133018913465</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3104320289.123753</v>
+        <v>4546036896.156709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1509441478912911</v>
+        <v>0.1387416219544812</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01727215739503154</v>
+        <v>0.01644438269846893</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>107</v>
+      </c>
+      <c r="J27" t="n">
+        <v>261</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.51949725619001</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2637237879.013596</v>
+        <v>3202425034.630663</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09669665090020899</v>
+        <v>0.1284049965768791</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0361044589560686</v>
+        <v>0.03616155483768402</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>53</v>
+      </c>
+      <c r="J28" t="n">
+        <v>261</v>
+      </c>
+      <c r="K28" t="n">
+        <v>62.56845872501546</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4856804128.002742</v>
+        <v>5304863802.648842</v>
       </c>
       <c r="F29" t="n">
-        <v>0.115877683867759</v>
+        <v>0.09941947699275241</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04092625871342957</v>
+        <v>0.04029851182383846</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>250</v>
+      </c>
+      <c r="J29" t="n">
+        <v>262</v>
+      </c>
+      <c r="K29" t="n">
+        <v>101.9687905566599</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1557794751.128945</v>
+        <v>1542350963.006317</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1021143593100074</v>
+        <v>0.1141396280391363</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02934521697917173</v>
+        <v>0.03554066645780422</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>967914172.4392234</v>
+        <v>1379321331.560587</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1100793829207635</v>
+        <v>0.1041162928315545</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04308579189477506</v>
+        <v>0.04666995613043148</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1584669019.853788</v>
+        <v>1834730265.554317</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1206036851495094</v>
+        <v>0.07626277654783888</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03339945204791556</v>
+        <v>0.03293069340959413</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2838905034.783274</v>
+        <v>2050628483.955338</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1468784778077115</v>
+        <v>0.1302905415083766</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04441325287129422</v>
+        <v>0.05858435898715423</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1526959292.813416</v>
+        <v>1487072410.73771</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1056662931363886</v>
+        <v>0.08227453329790664</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02799062105373616</v>
+        <v>0.01785071875321689</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>863730127.4501094</v>
+        <v>1204116471.306582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.109651213492668</v>
+        <v>0.1005096519743407</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02912629031312629</v>
+        <v>0.04396418618255264</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3099605694.79679</v>
+        <v>2540893387.635755</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1402725163508576</v>
+        <v>0.1777402119310264</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02046763647399704</v>
+        <v>0.02448008414045417</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2484806965.063428</v>
+        <v>2717785179.444397</v>
       </c>
       <c r="F37" t="n">
-        <v>0.104989115515985</v>
+        <v>0.06777230097838306</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03832272539150993</v>
+        <v>0.04245486761650356</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1504719364.22087</v>
+        <v>1930889753.463448</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09457799733529025</v>
+        <v>0.0780677097553906</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03467520118006343</v>
+        <v>0.03043069771159478</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1516093155.624668</v>
+        <v>1639708696.366261</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1395252100703498</v>
+        <v>0.1689265961385879</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03181504087225306</v>
+        <v>0.03265423290144021</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1563695289.122976</v>
+        <v>1284175741.624964</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1143234983266427</v>
+        <v>0.1628123748367087</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04804298132548965</v>
+        <v>0.05207775696538434</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2358047613.076799</v>
+        <v>2782305918.585028</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1431018888201009</v>
+        <v>0.1218067618575841</v>
       </c>
       <c r="G41" t="n">
-        <v>0.028759560442066</v>
+        <v>0.03987201433346733</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2787810300.486387</v>
+        <v>4253539153.400049</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09598153370008793</v>
+        <v>0.0769871223744404</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03072584479814851</v>
+        <v>0.03443443697686327</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>109</v>
+      </c>
+      <c r="J42" t="n">
+        <v>262</v>
+      </c>
+      <c r="K42" t="n">
+        <v>107.3872868421353</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2106686005.8088</v>
+        <v>2228108105.749402</v>
       </c>
       <c r="F43" t="n">
-        <v>0.142373939743261</v>
+        <v>0.1990514183204243</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01712853512664089</v>
+        <v>0.02561866568000825</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1776802398.760143</v>
+        <v>1772300564.564106</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09482576204781504</v>
+        <v>0.06400562861148412</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03303240282698858</v>
+        <v>0.02654388025398133</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2175730838.251944</v>
+        <v>1935621708.577755</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1557657081111288</v>
+        <v>0.1267776714064449</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05464431308591268</v>
+        <v>0.04909481395553014</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5086884605.197101</v>
+        <v>3863247918.983661</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1333977617636758</v>
+        <v>0.1175818740942107</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04797520288155735</v>
+        <v>0.06058833530198945</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>152</v>
+      </c>
+      <c r="J46" t="n">
+        <v>261</v>
+      </c>
+      <c r="K46" t="n">
+        <v>87.63041245430625</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3469128777.677927</v>
+        <v>3659299363.347572</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1903420611565756</v>
+        <v>0.1539784857751234</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05185226701425326</v>
+        <v>0.04670988967097933</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>118</v>
+      </c>
+      <c r="J47" t="n">
+        <v>262</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4553418295.886777</v>
+        <v>3449984607.814285</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07749338908368011</v>
+        <v>0.08712728128654273</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0276877802599962</v>
+        <v>0.02682890887200689</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>129</v>
+      </c>
+      <c r="J48" t="n">
+        <v>261</v>
+      </c>
+      <c r="K48" t="n">
+        <v>74.12435192012778</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1599830469.325265</v>
+        <v>1744554714.25764</v>
       </c>
       <c r="F49" t="n">
-        <v>0.118577632952991</v>
+        <v>0.1889643646985258</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02764510483000509</v>
+        <v>0.03838785790217188</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3536367921.281154</v>
+        <v>3989182161.888434</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1297629038072544</v>
+        <v>0.1729075656575441</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04186848615505768</v>
+        <v>0.03452672453735037</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>262</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1512031110.513837</v>
+        <v>1494877283.243962</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1538145370350708</v>
+        <v>0.1463249982130324</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03530824128852292</v>
+        <v>0.0367120521084396</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3357619582.904947</v>
+        <v>4285665566.189376</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1138187859617653</v>
+        <v>0.1386416475703505</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04440692391801306</v>
+        <v>0.04204844346675007</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>167</v>
+      </c>
+      <c r="J52" t="n">
+        <v>261</v>
+      </c>
+      <c r="K52" t="n">
+        <v>95.13872435868068</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3267442626.241673</v>
+        <v>2430026492.643956</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1363433816964077</v>
+        <v>0.1234976283869911</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03431196594167604</v>
+        <v>0.02952593482759778</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" t="n">
+        <v>259</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3915666737.345025</v>
+        <v>3615570245.126916</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1604370057693447</v>
+        <v>0.1533278568821813</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04174203010382624</v>
+        <v>0.03547108102455955</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>139</v>
+      </c>
+      <c r="J54" t="n">
+        <v>261</v>
+      </c>
+      <c r="K54" t="n">
+        <v>76.2231046654893</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4961048969.11491</v>
+        <v>4109226029.809401</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1583861944475672</v>
+        <v>0.1693789977083993</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0220091438266139</v>
+        <v>0.03166092147855835</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>117</v>
+      </c>
+      <c r="J55" t="n">
+        <v>262</v>
+      </c>
+      <c r="K55" t="n">
+        <v>98.43104525349979</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1321203204.137071</v>
+        <v>1192378801.944301</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1150734403958923</v>
+        <v>0.1372548098116985</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03745500204186283</v>
+        <v>0.03613493182136293</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3310281193.213109</v>
+        <v>3196951973.327398</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1381968267307772</v>
+        <v>0.1137651559250911</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02506559713435857</v>
+        <v>0.02178653916405162</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>105</v>
+      </c>
+      <c r="J57" t="n">
+        <v>260</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2487,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1876589978.51173</v>
+        <v>1288910351.266378</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2007321902560265</v>
+        <v>0.1654323808173034</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03516024999437251</v>
+        <v>0.030670722334875</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4622644107.540659</v>
+        <v>5264231016.869126</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08823171393979534</v>
+        <v>0.08936215385578877</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04597231986112325</v>
+        <v>0.03673274689820203</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>126</v>
+      </c>
+      <c r="J59" t="n">
+        <v>262</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3589517690.243168</v>
+        <v>3732871154.253417</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1874920538191687</v>
+        <v>0.1592563358481171</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02241902416214998</v>
+        <v>0.02147027262224621</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>38</v>
+      </c>
+      <c r="J60" t="n">
+        <v>262</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2418415326.692743</v>
+        <v>2919567658.508911</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1237736705777006</v>
+        <v>0.1465011404907157</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02476870059092646</v>
+        <v>0.02709515907040488</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2074047380.067938</v>
+        <v>1865196194.781589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1250194755213491</v>
+        <v>0.1829788428422419</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03666173401761249</v>
+        <v>0.04108221118639346</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5596323918.523484</v>
+        <v>4972579297.8717</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09678627407997194</v>
+        <v>0.06661656048150232</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03158241105205023</v>
+        <v>0.04553482630885308</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>128</v>
+      </c>
+      <c r="J63" t="n">
+        <v>261</v>
+      </c>
+      <c r="K63" t="n">
+        <v>92.55605891589745</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5038343496.349058</v>
+        <v>3403808696.131194</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1749756358588873</v>
+        <v>0.1760255164611094</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02715155918125282</v>
+        <v>0.03377916502476485</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>129</v>
+      </c>
+      <c r="J64" t="n">
+        <v>261</v>
+      </c>
+      <c r="K64" t="n">
+        <v>64.87084294794008</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2730,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5649315934.051616</v>
+        <v>5289608043.321245</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1621458274974844</v>
+        <v>0.1452683837151448</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03070485334452782</v>
+        <v>0.02947639457263716</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>210</v>
+      </c>
+      <c r="J65" t="n">
+        <v>262</v>
+      </c>
+      <c r="K65" t="n">
+        <v>98.50516108520641</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2767,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4688136433.971342</v>
+        <v>3754883601.457444</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1046245860016238</v>
+        <v>0.1592234184088819</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03252629536233515</v>
+        <v>0.03205821250428788</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>129</v>
+      </c>
+      <c r="J66" t="n">
+        <v>262</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2908423476.743596</v>
+        <v>2443818627.820068</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07635637051876004</v>
+        <v>0.1032103611640858</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03234338411328733</v>
+        <v>0.04007197335698853</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4752341907.741708</v>
+        <v>4363127751.367472</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1071187954426868</v>
+        <v>0.1063108806378157</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05173191826381478</v>
+        <v>0.03610257222336605</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>133</v>
+      </c>
+      <c r="J68" t="n">
+        <v>262</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2485651655.080333</v>
+        <v>2160599446.640935</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1207262204680607</v>
+        <v>0.1613394745342428</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0487826305391284</v>
+        <v>0.03654291782118164</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2977920036.102399</v>
+        <v>2923654150.805239</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08130083718030197</v>
+        <v>0.06938231440961329</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04507065060214914</v>
+        <v>0.04429900063192235</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4638632676.106603</v>
+        <v>5048643789.637468</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1301369666972434</v>
+        <v>0.117232000855685</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02819743094717314</v>
+        <v>0.03273644803034667</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>198</v>
+      </c>
+      <c r="J71" t="n">
+        <v>261</v>
+      </c>
+      <c r="K71" t="n">
+        <v>97.55643747720755</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2256703170.955104</v>
+        <v>1817497537.695837</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09865610127611213</v>
+        <v>0.06701195629121358</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03422869815370557</v>
+        <v>0.03931019538121083</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2783659746.240013</v>
+        <v>2476261895.597521</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08908352881608383</v>
+        <v>0.1031848919766245</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04526111425976787</v>
+        <v>0.03874970635849365</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3247429435.853418</v>
+        <v>2648326049.915046</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1164573259888437</v>
+        <v>0.112591145793388</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03437719948160061</v>
+        <v>0.023506745421201</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1881983182.476419</v>
+        <v>2364511027.486348</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1544883405009766</v>
+        <v>0.1295920850473539</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03799089404753835</v>
+        <v>0.03463578578654067</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5065696524.284958</v>
+        <v>3958687213.255931</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1216141764200765</v>
+        <v>0.09734609802380463</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02966674140686285</v>
+        <v>0.02799486776644042</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>122</v>
+      </c>
+      <c r="J76" t="n">
+        <v>262</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1869864235.797202</v>
+        <v>2178413665.115045</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1373358135092014</v>
+        <v>0.1371582567555202</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02964035101646668</v>
+        <v>0.02197448431039235</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3232508985.920521</v>
+        <v>4417723050.333505</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09392972710194041</v>
+        <v>0.09273347507767105</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05250446093737001</v>
+        <v>0.04012320787250966</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>131</v>
+      </c>
+      <c r="J78" t="n">
+        <v>262</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1465880597.371084</v>
+        <v>1278583760.775065</v>
       </c>
       <c r="F79" t="n">
-        <v>0.159241576589132</v>
+        <v>0.1510661293299315</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03284921971097636</v>
+        <v>0.03621823894061774</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3941544709.313768</v>
+        <v>3715002014.74558</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08227020986086263</v>
+        <v>0.1000594112079779</v>
       </c>
       <c r="G80" t="n">
-        <v>0.027337170493086</v>
+        <v>0.02417884904648362</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>128</v>
+      </c>
+      <c r="J80" t="n">
+        <v>261</v>
+      </c>
+      <c r="K80" t="n">
+        <v>60.05076485695384</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4169544991.77821</v>
+        <v>4740747320.812178</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1338191974829156</v>
+        <v>0.09187555396353579</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02477368619316148</v>
+        <v>0.02420924691984001</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>120</v>
+      </c>
+      <c r="J81" t="n">
+        <v>261</v>
+      </c>
+      <c r="K81" t="n">
+        <v>86.65117562333421</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4763107446.69194</v>
+        <v>4067169509.540804</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1463340000398863</v>
+        <v>0.1938518130394458</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02783456423959288</v>
+        <v>0.02554941131738323</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>197</v>
+      </c>
+      <c r="J82" t="n">
+        <v>261</v>
+      </c>
+      <c r="K82" t="n">
+        <v>97.31814669255901</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1682793450.70025</v>
+        <v>2319975889.374148</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1549189701523945</v>
+        <v>0.1142924712600904</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03296323110169794</v>
+        <v>0.0298496522048878</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1754453158.991863</v>
+        <v>1647923835.723771</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08179865779736291</v>
+        <v>0.1123242723028323</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0469043526958253</v>
+        <v>0.05119503276935473</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2865407175.300558</v>
+        <v>2644679157.465629</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1490739234990676</v>
+        <v>0.178044100117899</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04243895499686718</v>
+        <v>0.04573419546573061</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2306443054.728013</v>
+        <v>2327574175.802868</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1653589693531476</v>
+        <v>0.1643854634427951</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02048546865031938</v>
+        <v>0.02141215847526289</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1109507313.333272</v>
+        <v>1142666397.767325</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1880979153720191</v>
+        <v>0.137469018100783</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03363248199253966</v>
+        <v>0.03642304617550842</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3590847865.863532</v>
+        <v>2749836214.436215</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1401840628111823</v>
+        <v>0.1589680978855485</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02895020984752366</v>
+        <v>0.03865762883157764</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3053503430.173905</v>
+        <v>2614886543.572806</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1268686637483904</v>
+        <v>0.1528410168801247</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03101833905313459</v>
+        <v>0.03690923726471781</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1954325472.18771</v>
+        <v>1737012142.269582</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1091891554380058</v>
+        <v>0.09492694515310979</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05159069997140272</v>
+        <v>0.03594952726054209</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1412217248.718524</v>
+        <v>1477033132.734917</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1222706699760046</v>
+        <v>0.1289235226866969</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04797132622203614</v>
+        <v>0.05211934295103962</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2942249963.477334</v>
+        <v>2949742870.001082</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08743122675525931</v>
+        <v>0.1074031167727581</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03944372708712715</v>
+        <v>0.0386211009977486</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3822553664.511815</v>
+        <v>5004700705.734275</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1160186722508381</v>
+        <v>0.09407587965232703</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05190267618397072</v>
+        <v>0.04987418342886697</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>114</v>
+      </c>
+      <c r="J93" t="n">
+        <v>262</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1867581981.678543</v>
+        <v>2181809384.590693</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1255484594976346</v>
+        <v>0.1159212526590254</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03562130797883686</v>
+        <v>0.03647291402579395</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2344501662.878155</v>
+        <v>2269495126.490483</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09400521512817864</v>
+        <v>0.09344870876392641</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03438441054294233</v>
+        <v>0.04844162266255457</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2271406166.100629</v>
+        <v>1999327863.000375</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1413976929301897</v>
+        <v>0.1039171493227936</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0441820735046717</v>
+        <v>0.04646594690949753</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4797398467.265283</v>
+        <v>3779502305.78386</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1431414526088795</v>
+        <v>0.1356019659376212</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02650630094599339</v>
+        <v>0.02420223936905029</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>129</v>
+      </c>
+      <c r="J97" t="n">
+        <v>262</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3909171167.960342</v>
+        <v>2956285582.688352</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1245561004239273</v>
+        <v>0.1033869070374162</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02315334080972498</v>
+        <v>0.02794290674184751</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>64</v>
+      </c>
+      <c r="J98" t="n">
+        <v>260</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3337099364.018758</v>
+        <v>3337760320.594636</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1471328748847924</v>
+        <v>0.1099541254343799</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03472849696634715</v>
+        <v>0.03456347462216613</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3405442108.95108</v>
+        <v>3098897941.001521</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1282672895960528</v>
+        <v>0.1224371465077434</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02386117296726751</v>
+        <v>0.02680730299922337</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>110</v>
+      </c>
+      <c r="J100" t="n">
+        <v>260</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3291314200.879951</v>
+        <v>2451624037.446954</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1862402554493006</v>
+        <v>0.1568054903623125</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04326300507814267</v>
+        <v>0.05655875818115071</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>259</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
